--- a/data/MZ_Sample_Prep.xlsx
+++ b/data/MZ_Sample_Prep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb15237/Documents/Conferences/2022vVMSG/vVMSG2022/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8235B4AE-C06E-E24E-8D9B-19531D5E41FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BCA0B4-E94D-E542-B4B3-2E82C62DAD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7C5F8C75-1593-D64E-86E7-36ABF8ABFA28}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{7C5F8C75-1593-D64E-86E7-36ABF8ABFA28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="125">
   <si>
-    <t>MZ2408_GR3</t>
-  </si>
-  <si>
     <t>MZ18059</t>
   </si>
   <si>
@@ -378,37 +375,40 @@
     <t>Lab_ID</t>
   </si>
   <si>
-    <t>MZ2208_JC1</t>
-  </si>
-  <si>
-    <t>MZ2208_SG1</t>
-  </si>
-  <si>
-    <t>MZ2308_BH1</t>
-  </si>
-  <si>
-    <t>MZ2308_TR1</t>
-  </si>
-  <si>
-    <t>MZ2408_AP4</t>
-  </si>
-  <si>
-    <t>MZ2408_AP1</t>
-  </si>
-  <si>
-    <t>MZ2408_GR1</t>
-  </si>
-  <si>
-    <t>MZ2408_GR4</t>
-  </si>
-  <si>
-    <t>MZ2408_GR5b</t>
-  </si>
-  <si>
-    <t>MZ2408_PB1</t>
-  </si>
-  <si>
     <t>Field_locality_numb</t>
+  </si>
+  <si>
+    <t>MZ2208JC1</t>
+  </si>
+  <si>
+    <t>MZ2208SG1</t>
+  </si>
+  <si>
+    <t>MZ2308BH1</t>
+  </si>
+  <si>
+    <t>MZ2308TR1</t>
+  </si>
+  <si>
+    <t>MZ2408AP4</t>
+  </si>
+  <si>
+    <t>MZ2408AP1</t>
+  </si>
+  <si>
+    <t>MZ2408GR1</t>
+  </si>
+  <si>
+    <t>MZ2408GR3</t>
+  </si>
+  <si>
+    <t>MZ2408GR4</t>
+  </si>
+  <si>
+    <t>MZ2408GR5b</t>
+  </si>
+  <si>
+    <t>MZ2408PB1</t>
   </si>
 </sst>
 </file>
@@ -539,127 +539,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -983,7 +863,7 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1013,67 +893,67 @@
   <sheetData>
     <row r="1" spans="1:21" ht="40" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
@@ -1084,16 +964,16 @@
         <v>80</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" s="7">
         <v>42969</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G2" s="8">
         <v>1</v>
@@ -1110,10 +990,10 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="Q2" s="7">
         <v>43043</v>
@@ -1126,7 +1006,7 @@
       </c>
       <c r="T2" s="8"/>
       <c r="U2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
@@ -1137,16 +1017,16 @@
         <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="7">
         <v>42969</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" s="8">
         <v>2</v>
@@ -1163,10 +1043,10 @@
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="Q3" s="7">
         <v>43043</v>
@@ -1179,7 +1059,7 @@
       </c>
       <c r="T3" s="8"/>
       <c r="U3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
@@ -1190,16 +1070,16 @@
         <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="7">
         <v>42970</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" s="8">
         <v>4</v>
@@ -1216,10 +1096,10 @@
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="Q4" s="7">
         <v>43043</v>
@@ -1232,7 +1112,7 @@
       </c>
       <c r="T4" s="8"/>
       <c r="U4" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
@@ -1243,16 +1123,16 @@
         <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="7">
         <v>42970</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="8">
         <v>4</v>
@@ -1273,7 +1153,7 @@
       <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
@@ -1284,16 +1164,16 @@
         <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="7">
         <v>42971</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" s="8">
         <v>6</v>
@@ -1310,10 +1190,10 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="Q6" s="7">
         <v>43043</v>
@@ -1326,7 +1206,7 @@
       </c>
       <c r="T6" s="8"/>
       <c r="U6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -1337,16 +1217,16 @@
         <v>73</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" s="7">
         <v>42971</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G7" s="8">
         <v>6</v>
@@ -1363,10 +1243,10 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="Q7" s="7">
         <v>43043</v>
@@ -1379,7 +1259,7 @@
       </c>
       <c r="T7" s="8"/>
       <c r="U7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
@@ -1390,16 +1270,16 @@
         <v>67</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E8" s="7">
         <v>42971</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G8" s="8">
         <v>7</v>
@@ -1417,7 +1297,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
       <c r="P8" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q8" s="7">
         <v>43043</v>
@@ -1430,27 +1310,27 @@
       </c>
       <c r="T8" s="8"/>
       <c r="U8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="B9" s="8">
         <v>67</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="7">
         <v>42971</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G9" s="8">
         <v>7</v>
@@ -1468,7 +1348,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
       <c r="P9" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q9" s="7">
         <v>43043</v>
@@ -1481,27 +1361,27 @@
       </c>
       <c r="T9" s="8"/>
       <c r="U9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B10" s="8">
         <v>67</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E10" s="7">
         <v>42971</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G10" s="8">
         <v>7</v>
@@ -1518,10 +1398,10 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="Q10" s="7">
         <v>43043</v>
@@ -1534,27 +1414,27 @@
       </c>
       <c r="T10" s="8"/>
       <c r="U10" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11" s="8">
         <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E11" s="7">
         <v>42971</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="8">
         <v>7</v>
@@ -1572,7 +1452,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q11" s="7">
         <v>43044</v>
@@ -1585,27 +1465,27 @@
       </c>
       <c r="T11" s="8"/>
       <c r="U11" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" s="10">
         <v>69</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="9">
         <v>42971</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G12" s="10">
         <v>8</v>
@@ -1622,10 +1502,10 @@
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P12" s="9" t="s">
         <v>97</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="Q12" s="9">
         <v>43043</v>
@@ -1638,33 +1518,33 @@
       </c>
       <c r="T12" s="10"/>
       <c r="U12" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="8">
         <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E13" s="11">
         <v>43296</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G13" s="8">
         <v>12</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1679,33 +1559,33 @@
       <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="8">
         <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="E14" s="11">
         <v>43296</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G14" s="8">
         <v>12</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -1720,33 +1600,33 @@
       <c r="S14" s="8"/>
       <c r="T14" s="8"/>
       <c r="U14" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="8">
         <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E15" s="11">
         <v>43297</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G15" s="8">
         <v>13</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" s="11">
         <v>43319</v>
@@ -1767,33 +1647,33 @@
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="U15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="8">
         <v>46</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="11">
         <v>43297</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G16" s="8">
         <v>13</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="11">
         <v>43319</v>
@@ -1814,33 +1694,33 @@
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
       <c r="U16" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B17" s="8">
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="11">
         <v>43297</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" s="8">
         <v>13</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17" s="11">
         <v>43321</v>
@@ -1855,47 +1735,47 @@
         <v>43295</v>
       </c>
       <c r="O17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P17" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="P17" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="Q17" s="12">
         <v>43430</v>
       </c>
       <c r="R17" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
       <c r="U17" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="8">
         <v>46</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="11">
         <v>43297</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G18" s="8">
         <v>13</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I18" s="11">
         <v>43321</v>
@@ -1912,51 +1792,51 @@
         <v>43325</v>
       </c>
       <c r="O18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P18" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="P18" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="Q18" s="12">
         <v>43430</v>
       </c>
       <c r="R18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S18" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="S18" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="T18" s="12">
         <v>44134</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="8">
         <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="11">
         <v>43297</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G19" s="8">
         <v>13</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I19" s="11">
         <v>43321</v>
@@ -1973,51 +1853,51 @@
         <v>43325</v>
       </c>
       <c r="O19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P19" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="P19" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="Q19" s="12">
         <v>43430</v>
       </c>
       <c r="R19" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S19" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="S19" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="T19" s="12">
         <v>44134</v>
       </c>
       <c r="U19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="8">
         <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="11">
         <v>43297</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G20" s="8">
         <v>13</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I20" s="11">
         <v>43319</v>
@@ -2035,46 +1915,46 @@
       </c>
       <c r="O20" s="13"/>
       <c r="P20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q20" s="12">
         <v>43430</v>
       </c>
       <c r="R20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="S20" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="T20" s="13"/>
       <c r="U20" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="8">
         <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="11">
         <v>43297</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G21" s="8">
         <v>13</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I21" s="11">
         <v>43321</v>
@@ -2091,49 +1971,49 @@
         <v>43295</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="12">
         <v>43430</v>
       </c>
       <c r="R21" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="S21" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="T21" s="13"/>
       <c r="U21" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" s="8">
         <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E22" s="11">
         <v>43297</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G22" s="8">
         <v>13</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I22" s="11">
         <v>43319</v>
@@ -2151,48 +2031,48 @@
       </c>
       <c r="O22" s="13"/>
       <c r="P22" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q22" s="12">
         <v>43430</v>
       </c>
       <c r="R22" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="S22" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="S22" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="T22" s="12">
         <v>44134</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" s="8">
         <v>46</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" s="11">
         <v>43297</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G23" s="8">
         <v>13</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I23" s="11">
         <v>43319</v>
@@ -2210,48 +2090,48 @@
       </c>
       <c r="O23" s="13"/>
       <c r="P23" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q23" s="12">
         <v>43430</v>
       </c>
       <c r="R23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="S23" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="S23" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="T23" s="12">
         <v>44134</v>
       </c>
       <c r="U23" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24" s="8">
         <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="11">
         <v>43297</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G24" s="8">
         <v>13</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I24" s="11">
         <v>43321</v>
@@ -2268,51 +2148,51 @@
         <v>43325</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="12">
         <v>43430</v>
       </c>
       <c r="R24" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24" s="13" t="s">
         <v>61</v>
-      </c>
-      <c r="S24" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="T24" s="12">
         <v>44134</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="8">
         <v>46</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="11">
         <v>43297</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G25" s="8">
         <v>13</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I25" s="11">
         <v>43319</v>
@@ -2333,33 +2213,33 @@
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
       <c r="U25" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="8">
         <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="E26" s="11">
         <v>43298</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G26" s="8">
         <v>14</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I26" s="11">
         <v>43318</v>
@@ -2374,43 +2254,43 @@
         <v>43322</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q26" s="12"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
       <c r="U26" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="8">
         <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" s="11">
         <v>43298</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G27" s="8">
         <v>14</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="11">
         <v>43319</v>
@@ -2425,16 +2305,16 @@
         <v>43322</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q27" s="12">
         <v>43347</v>
       </c>
       <c r="R27" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S27" s="12">
         <v>43390</v>
@@ -2443,33 +2323,33 @@
         <v>44230</v>
       </c>
       <c r="U27" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="8">
         <v>50</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="11">
         <v>43298</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G28" s="8">
         <v>14</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="14"/>
@@ -2478,7 +2358,7 @@
       </c>
       <c r="L28" s="8"/>
       <c r="M28" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
@@ -2488,33 +2368,33 @@
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
       <c r="U28" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29" s="8">
         <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" s="11">
         <v>43298</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G29" s="8">
         <v>14</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I29" s="11">
         <v>43318</v>
@@ -2529,16 +2409,16 @@
         <v>43353</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q29" s="12">
         <v>43347</v>
       </c>
       <c r="R29" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S29" s="12">
         <v>43390</v>
@@ -2547,33 +2427,33 @@
         <v>44230</v>
       </c>
       <c r="U29" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="8">
         <v>55</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E30" s="11">
         <v>43298</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G30" s="8">
         <v>15</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I30" s="11">
         <v>43318</v>
@@ -2589,42 +2469,42 @@
       </c>
       <c r="O30" s="13"/>
       <c r="P30" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q30" s="12"/>
       <c r="R30" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S30" s="12"/>
       <c r="T30" s="13"/>
       <c r="U30" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="8">
         <v>55</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E31" s="11">
         <v>43298</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G31" s="8">
         <v>16</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I31" s="11">
         <v>43319</v>
@@ -2639,16 +2519,16 @@
         <v>43325</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q31" s="12">
         <v>43347</v>
       </c>
       <c r="R31" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S31" s="12">
         <v>43390</v>
@@ -2657,33 +2537,33 @@
         <v>44230</v>
       </c>
       <c r="U31" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32" s="8">
         <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E32" s="11">
         <v>43298</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G32" s="8">
         <v>16</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I32" s="11">
         <v>43319</v>
@@ -2698,16 +2578,16 @@
         <v>43322</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q32" s="12">
         <v>43347</v>
       </c>
       <c r="R32" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S32" s="12">
         <v>43390</v>
@@ -2716,33 +2596,33 @@
         <v>44230</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E33" s="11">
         <v>43299</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" s="8">
         <v>17</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
@@ -2751,7 +2631,7 @@
       </c>
       <c r="L33" s="8"/>
       <c r="M33" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
@@ -2761,7 +2641,7 @@
       <c r="S33" s="13"/>
       <c r="T33" s="13"/>
       <c r="U33" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
